--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3393.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3393.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.644266741617498</v>
+        <v>1.191680431365967</v>
       </c>
       <c r="B1">
-        <v>2.260030799056804</v>
+        <v>3.078534364700317</v>
       </c>
       <c r="C1">
-        <v>2.481015820711055</v>
+        <v>5.371914386749268</v>
       </c>
       <c r="D1">
-        <v>2.957305864080221</v>
+        <v>2.276468992233276</v>
       </c>
       <c r="E1">
-        <v>3.904448629511295</v>
+        <v>1.387879729270935</v>
       </c>
     </row>
   </sheetData>
